--- a/perhitungan otomotif.xlsx
+++ b/perhitungan otomotif.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UP &amp; SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UP &amp; SKRIPSI\skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F47789B-E316-4F2C-936D-54E7DC221781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3943610-EE0A-4A5D-A522-6E7E76C48D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10800" activeTab="3" xr2:uid="{CB7C3496-DD8D-4C45-9273-C6323B2D76DC}"/>
   </bookViews>
@@ -382,7 +382,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,6 +534,20 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -576,21 +590,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846B43B6-4E3E-48A6-AEDC-62D54352D71D}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="F44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -932,15 +935,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
@@ -993,11 +996,11 @@
         <v>11.759984391766658</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1027,7 +1030,7 @@
         <f>K14/N14</f>
         <v>7.9850316598294384</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="96" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -1509,10 +1512,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="84"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="69">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12)/11</f>
         <v>7.9293312398357241</v>
@@ -1558,10 +1561,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="69">
         <f>K35/N35</f>
         <v>3.9983988030073729</v>
@@ -1607,10 +1610,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="69">
         <f>K15/N15</f>
         <v>19.706801900800059</v>
@@ -1656,12 +1659,12 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
@@ -1696,10 +1699,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="69">
         <f>K19/N19</f>
         <v>52.500979537855891</v>
@@ -2779,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4743B5A1-22C0-4E24-B9C7-B42CEB920A6F}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D18"/>
+    <sheetView topLeftCell="D53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,15 +2801,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
@@ -2831,11 +2834,11 @@
         <v>2022</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3398,10 +3401,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="85"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="69">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13)/11</f>
         <v>7.4025106297926788</v>
@@ -3447,10 +3450,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="14">
         <f>K34/N34</f>
         <v>1.6270593961040254</v>
@@ -3496,10 +3499,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="14">
         <f>K14/N14</f>
         <v>25.174049362940394</v>
@@ -3545,12 +3548,12 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
@@ -3585,10 +3588,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="14">
         <f>K16/N16</f>
         <v>25.259028080714916</v>
@@ -4676,8 +4679,8 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B16"/>
+    <sheetView topLeftCell="F44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4693,15 +4696,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
@@ -5309,10 +5312,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="85"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="69">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13)/11</f>
         <v>20.634193621167654</v>
@@ -5358,10 +5361,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="14">
         <f>L33/O33</f>
         <v>2.0781550814891299</v>
@@ -5407,10 +5410,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="14">
         <f>L53/O53</f>
         <v>57.06300594806325</v>
@@ -5456,12 +5459,12 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
@@ -5496,10 +5499,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="14">
         <f>L41/O41</f>
         <v>165.95041351435842</v>
@@ -6531,8 +6534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D874C222-AB88-4B4A-8D00-8709B9181EF8}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6549,15 +6552,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7085,26 +7088,26 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="75">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13)/11</f>
         <v>8.254774448110952E-2</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="77">
         <f>(D3+D4+D5+D6+D7+D8+D9+D10+D11+D12+D13)/11</f>
         <v>5.5106482389571054E-2</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="77">
         <f>(E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13)/11</f>
         <v>4.8736607408517235E-2</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="77">
         <f>(F3+F4+F5+F6+F7+F8+F9+F10+F11+F12+F13)/11</f>
         <v>5.7613542618347328E-2</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="78">
         <f>(G3+G4+G5+G6+G7+G8+G9+G10+G11+G12+G13)/11</f>
         <v>6.7037312189386161E-2</v>
       </c>
@@ -7127,26 +7130,26 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="75">
         <f>K18/L18</f>
         <v>2.4117254938573595E-3</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="78">
         <f>K19/L19</f>
         <v>3.4862501237706315E-3</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="78">
         <f>K10/L10</f>
         <v>2.7094035122575658E-3</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="78">
         <f>K51/L51</f>
         <v>4.3356111189390609E-4</v>
       </c>
-      <c r="G15" s="93">
+      <c r="G15" s="78">
         <f>K22/L22</f>
         <v>9.7928511460722793E-3</v>
       </c>
@@ -7169,26 +7172,26 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="75">
         <f>K13/L13</f>
         <v>0.30994799055244454</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="78">
         <f>K54/L54</f>
         <v>0.20556160465738285</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="78">
         <f>K55/L55</f>
         <v>0.1597131824788196</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="78">
         <f>K56/L56</f>
         <v>0.1882370061273832</v>
       </c>
-      <c r="G16" s="93">
+      <c r="G16" s="78">
         <f>K57/L57</f>
         <v>0.2137064835256921</v>
       </c>
@@ -7211,12 +7214,12 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="95" t="s">
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="80" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -7244,16 +7247,16 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="91">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="76">
         <v>0.30990000000000001</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="93">
+      <c r="G18" s="78">
         <f>(C14+D14+E14+F14+G14)/5</f>
         <v>6.2208337817386258E-2</v>
       </c>
